--- a/src/app/(main)/issue_list/applied_info_morning_problem/data/PBL3応用午前入力シートテンプレート.xlsx
+++ b/src/app/(main)/issue_list/applied_info_morning_problem/data/PBL3応用午前入力シートテンプレート.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="517">
   <si>
     <t>AC受け入れ基準</t>
   </si>
@@ -2785,10 +2785,19 @@
     <t>applied-info-morning-6-56.png</t>
   </si>
   <si>
-    <t>ア：
-イ：
-ウ：
-エ：</t>
+    <t>入出力データの管理方針</t>
+  </si>
+  <si>
+    <t>情報システムにおけるデータの取り扱い（入出力データの管理）について、適切なルールを選び出すものです。
+正解: イ (出力帳票は授受管理表などを用いて確実に受渡しを行い，情報の重要度によっては業務部門の管理者に手渡しする。)
+解説: システムから出力された紙（帳票）には、重要な情報が含まれていることがあります。 これが紛失したり、関係ない人の手に渡ったり（情報漏えい）するのを防ぐため、「誰が、いつ、誰に渡したか」を記録する管理表を使ったり、重要なものは手渡しするなどの厳格なルールを守ることが大切です。
+その他の選択肢: ア: 利用部門に確認せずに勝手に出力を止めてはいけません。 ウ: 入力データの誤りは、勝手に修正せず、元のデータを作成した部門に確認する必要があります。 エ: 元のデータ（証憑）は、法律などで一定期間の保存が義務付けられている場合があるため、すぐに捨ててはいけません。</t>
+  </si>
+  <si>
+    <t>ア：出力帳票の利用状況を定期的に点検し，利用されていないと判断したものは，情報システム部門の判断で出力を停止する。
+イ：出力帳票は授受管理表などを用いて確実に受渡しを行い，情報の重要度によっては業務部門の管理者に手渡しする。
+ウ：チェックによって発見された入力データの誤りは，情報システム部門の判断で迅速に修正する。
+エ：入力原票やEDI受信ファイルなどの取引情報は，機密性を確保するために，データをシステムに取り込んだ後に速やかに廃棄する。</t>
   </si>
   <si>
     <r>
@@ -2823,6 +2832,21 @@
     <t>applied-info-morning-6-57.png</t>
   </si>
   <si>
+    <t>システム監査において，監査手続の適用に際して用いられる技法</t>
+  </si>
+  <si>
+    <t>システム監査の手法のうち、データの流れ（入力から出力まで）を実際に追いかけて確認する方法を選ぶものです。
+正解: ア (ウォークスルー法)
+解説: 「ウォークスルー法」は、データがどのように処理されていくかを、書類上または実際のシステム上で、一歩一歩「歩いて通り抜ける（Walk Through）」ように追跡して確認する監査技法です。
+その他の選択肢: イ: 質問票などを使って確認するのは「チェックリスト法」です。 ウ: 複数の資料を突き合わせて確認するのは「突合・照合法」です。 エ: 文書の内容を点検するのは「ドキュメントレビュー法」です。</t>
+  </si>
+  <si>
+    <t>ア：ウォークスルー法
+イ：チェックリスト法
+ウ：突合・照合法
+エ：ドキュメントレビュー法</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -2855,6 +2879,21 @@
     <t>applied-info-morning-6-58.png</t>
   </si>
   <si>
+    <t>システム監査基準（令和5年）における予備調査</t>
+  </si>
+  <si>
+    <t>システム監査における「予備調査」の正しい実施内容を選ぶものです。
+正解: ア (監査対象先の事務手続やマニュアルなどを通じて，業務内容，業務分掌，体制などを把握する。)
+解説: 「予備調査」は、本格的な監査（本調査）の前に、監査対象の状況を大まかに把握するために行う調査です。 資料やマニュアルを読んで、どんな業務を行っているか、誰が何を担当しているか（体制）などを事前に理解しておくことで、本調査を効率的に進めることができます。
+その他の選択肢: イ: 現地に行くことは必須ではありません。資料確認だけで済む場合もあります。 ウ: 監査の結論を裏付ける証拠を集めるのは、メインの「本調査」で行います。 エ: 調査範囲は、必要に応じて関連部門にも広げることがあります。</t>
+  </si>
+  <si>
+    <t>ア：監査対象先の事務手続やマニュアルなどを通じて，業務内容，業務分掌，体制などを把握する。
+イ：監査対象の実態を把握するために，必ず現地に赴いて実施する。
+ウ：監査の結論を裏付けるために，十分な監査証拠を入手する
+エ：調査の範囲は，監査対象先だけに限定する。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -2887,6 +2926,21 @@
     <t>applied-info-morning-6-59.png</t>
   </si>
   <si>
+    <t>システム監査基準(令和5年)におけるフォローアップの説明</t>
+  </si>
+  <si>
+    <t>システム監査における「フォローアップ」というプロセスの正しい意味を選ぶものです。
+正解: ウ (システム監査人が，監査報告書に記載した改善提案の実施状況に関する情報を収集し，改善状況をモニタリングすること)
+解説: 「フォローアップ」とは、監査が終わった後、監査人が指摘した問題点について、監査を受けた部門がちゃんと改善しているかを見守る（モニタリングする）活動のことです。 ただし、実際に改善作業を行うのはあくまで監査を受けた部門であり、監査人はその状況を確認・支援する立場にとどまります。
+その他の選択肢: ア: 改善計画を作るのは、監査を受けた部門（監査対象先）の役割です。 イ: 監査の品質をチェックするのは、監査部門の責任者の役割であり、フォローアップとは異なります。 エ: 調査しきれなかった項目を追加で調べることではありません。</t>
+  </si>
+  <si>
+    <t>ア：監査対象先が，監査報告書の指摘事項及び改善提案を基に改善計画の策定を行うこと
+イ：監査部門の責任者が，監査報告書を基に監査の実施状況と指摘事項の妥当性を確認すること
+ウ：システム監査人が，監査報告書に記載した改善提案の実施状況に関する情報を収集し，改善状況をモニタリングすること
+エ：システム監査人が，時間の関係で調査が終了しなかった監査項目を追跡調査して報告すること</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -2919,6 +2973,24 @@
     <t>applied-info-morning-6-60.png</t>
   </si>
   <si>
+    <t>経済産業省が取りまとめた"デジタル経営改革のための評価指標(DX推進指標)"</t>
+  </si>
+  <si>
+    <t>経済産業省の「DX推進指標」において、DXの基盤となる「ITシステム」に求められる重要な要素を選ぶものです。
+正解: イ (環境変化に迅速に対応し，求められるデリバリースピードに対応できるITシステムとなっているか。)
+解説: DX推進指標では、ITシステムに対して主に以下の3点を求めています。
+スピード・アジリティ: 変化に素早く対応できること（選択肢イの内容）。
+データ活用: データをリアルタイムに使える形で持っていること。
+全社最適: 部門ごとにバラバラ（個別最適）ではなく、会社全体で連携できていること。
+その他の選択肢: ア: 人材に関することは、システムの要素ではなく「体制（ガバナンス）」の要素です。 ウ: DXでは、ため込んで後で分析するだけでなく「リアルタイム」に活用できることが重視されます。 エ: DXでは、個別のシステムが優れているだけでなく、全体がつながる「全社最適」が重視されます。</t>
+  </si>
+  <si>
+    <t>ア：ITシステムの全体設計や協働できるベンダーの選定などを行える人材を育成 ・確保できているか。
+イ：環境変化に迅速に対応し，求められるデリバリースピードに対応できるITシステムとなっているか。
+ウ：データ処理において，リアルタイム性よりも，ビッグデータの蓄積と事後の分析が重視されているか。
+エ：データを迅速に活用するために，全体最適よりも，個別最適を志向したITシステムとなっているか。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -2951,6 +3023,23 @@
     <t>applied-info-morning-6-61.png</t>
   </si>
   <si>
+    <t>官民データ活用推進基本法などに基づいて進められているオープンデータバイデザイン</t>
+  </si>
+  <si>
+    <t>行政が情報システムなどを作る際に、「オープンデータ（誰でも自由に使えるデータ）」として公開することを最初から前提に考えて設計する「オープンデータバイデザイン」という考え方について、適切な説明を選ぶものです。
+正解: エ (対象となる行政データを，二次利用や機械判読に適した形態で無償公開することを前提に，情報システムや業務プロセスの企画，整備及び運用を行っている。)
+解説: 「オープンデータバイデザイン」は、「後から公開できるか考える」のではなく、「最初から（by design）」公開することを前提にシステムや業務を作ろう、という考え方です。 その際、データは、
+誰でも自由に（営利目的でも）使える
+コンピュータが自動処理しやすい形式である（機械判読に適している）
+無料（無償）である という条件を満たす形で公開することが目指されています。</t>
+  </si>
+  <si>
+    <t>ア：行政機関が保有する個人情報を産業振興などの目的でオープン化する場合は，データ公開に先立ち，個人情報保護委員会への届出が義務化されている。
+イ：行政機関において収集蓄積された既存のデータが公開される場合，営利目的の利用は許されておらず，非営利の用途に限って利用が認められている。
+ウ：行政機関における情報システムの設計において，情報セキュリティを確保する観点から，公開するデータの用途を行政機関同士の相互利用に限定している。
+エ：対象となる行政データを，二次利用や機械判読に適した形態で無償公開することを前提に，情報システムや業務プロセスの企画，整備及び運用を行っている。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -2983,6 +3072,22 @@
     <t>applied-info-morning-6-62.png</t>
   </si>
   <si>
+    <t>業務改善の4原則としてのEliminate，Combine，Rearrange，Simplify</t>
+  </si>
+  <si>
+    <t>業務改善のフレームワーク「ECRS（イクルス）の4原則」のうち、「Rearrange（再配置・入替え）」の具体例を選ぶものです。
+正解: イ (商品配送ルートを可視化した結果，移動距離の無駄が発見された。そこで，配送順を入れ替えることで，一日に配送できる件数を向上させた。)
+解説: ECRSの4原則は、以下の順で改善を検討します。 E (Eliminate: 排除) → なくせないか？ C (Combine: 結合) → 一緒にできないか？ R (Rearrange: 入替え) → 順序や場所を変えられないか？ S (Simplify: 簡素化) → 単純にできないか？
+選択肢イは「配送順を入れ替える」という改善を行っており、まさに「Rearrange（入替え）」の適用例です。
+その他の選択肢: ア: 不要な人を外すのは「Eliminate（排除）」です。 ウ: 自動計算で楽にするのは「Simplify（簡素化）」です。 エ: バラバラの作業を1人がまとめて行うのは「Combine（結合）」です。</t>
+  </si>
+  <si>
+    <t>ア：経費精算申請業務において，決裁に不要な人を申請フローから外し，決裁までに要する時間を短縮した。
+イ：商品配送ルートを可視化した結果，移動距離の無駄が発見された。そこで，配送順を入れ替えることで，一日に配送できる件数を向上させた。
+ウ：表計算ソフト上で各項目を手入力していたが，一つの項目を入力すれば他の関連項目が自動計算できるように関数を設定し，作業効率を向上させた。
+エ：複数部門が集まる会議の議事録を，各部門のスタッフが，それぞれ独自に作成していた。各部門での作成をやめ，代表者1名が作成し，部門間で共有した。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3015,6 +3120,24 @@
     <t>applied-info-morning-6-63.png</t>
   </si>
   <si>
+    <t>BPRによって業務を見直した</t>
+  </si>
+  <si>
+    <t>業務見直し（BPR）後の4つの選択肢の中で、最も金額的なメリットが大きいものを選ぶ問題です。
+正解: イ (シナリオb：従業員4人、外部委託しない)
+解説: 「シナリオb」が最も効果が高くなる理由は、以下の3点が組み合わさるからです。
+人件費の大幅削減: 従業員を5人から4人に減らすことで、1人分の高額な年間人件費がそのまま削減効果（プラス）になります。
+余計な費用の回避: 外部委託をしないため、新たな費用が発生しません。
+追加利益の獲得: 残った4人でも全ての業務をこなせるだけでなく、少し時間が余るため、その時間を使ってさらに追加の利益を生み出せます。
+他のシナリオでは、外部委託費用がかかったり、人件費を削減できなかったりするため、シナリオbほどの高い効果は得られません。</t>
+  </si>
+  <si>
+    <t>ア：シナリオa
+イ：シナリオb
+ウ：シナリオc
+エ：シナリオd</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3047,6 +3170,21 @@
     <t>applied-info-morning-6-64.png</t>
   </si>
   <si>
+    <t>システムの要件を検討する際に用いるUXデザインの説明</t>
+  </si>
+  <si>
+    <t>「UX（ユーザーエクスペリエンス）デザイン」という言葉の正しい意味を選ぶものです。
+正解: ウ (システムを利用する際にシステムが利用者に及ぼす有効性，操作性などに加え，快適さ，安心感，楽しさなどの体験価値を重視する設計思想のこと)
+解説: UXデザインとは、システムを使う人の「体験（Experience）」全体をより良くしようとする設計思想です。 単に機能が使えるだけでなく、「使いやすい」「使っていて気持ちいい」「安心できる」といった、利用者の感情や満足度まで含めた価値を重視します。
+その他の選択肢: ア: セキュリティを最初から組み込むのは「プライバシーバイデザイン」などの考え方です。 イ: サービスを組み合わせてシステムを作るのは「SOA（サービス指向アーキテクチャ）」です。 エ: 他社の機能を活用するのは「API連携」などの手法です。</t>
+  </si>
+  <si>
+    <t>ア：システム設計時に，システム稼働後の個人情報保護などのセキュリティ対策を組み込む設計思想のこと
+イ：システムの個々のアプリケーションを利用者が享受するサービスとして捉え，その組合せでシステムを構築する設計思想のこと
+ウ：システムを利用する際にシステムの機能が利用者にもたらす有効性，操作性などに加え，快適さ，安心感，楽しさなどの体験価値を重視する設計思想のこと
+エ：接続仕様や仕組みが公開されている他社のアプリケーションを活用してシステムを構築することによって，システム開発の生産性を高める設計思想のこと</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3079,6 +3217,21 @@
     <t>applied-info-morning-6-65.png</t>
   </si>
   <si>
+    <t>UMLの図のうち，業務要件定義において，業務フローを記述</t>
+  </si>
+  <si>
+    <t>業務の流れ（フロー）を図式化する際に、処理の分岐や並行作業なども表現できるUMLの図を選ぶものです。
+正解: ア (アクティビティ図)
+解説: 「アクティビティ図」は、業務や処理の一連の流れ（フローチャートのようなもの）を表現する図です。 単に順番に並べるだけでなく、「もし〇〇ならこっちに進む（分岐）」や「同時にこの2つの作業を行う（並行処理）」といった複雑な流れも表現できるのが特徴です。
+その他の選択肢: イ: クラス図は、システムの静的な構造（データの設計図など）を表す図です。 ウ: 状態遷移図は、あるモノの状態がどのように変化していくかを表す図です。 エ: ユースケース図は、システムがユーザーにどのような機能を提供するのかを表す図です。</t>
+  </si>
+  <si>
+    <t>ア：アクティビティ図
+イ：クラス図
+ウ：状態遷移図
+エ：ユースケース図</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3111,6 +3264,21 @@
     <t>applied-info-morning-6-66.png</t>
   </si>
   <si>
+    <t>SCMの目的</t>
+  </si>
+  <si>
+    <t>企業の経営管理手法の一つである「SCM」の目的を選ぶものです。
+正解: エ (複数の企業や組織にまたがる調達から販売までの業務プロセス全ての情報を統合的に管理することによって，コスト低減や納期短縮などを目的とする。)
+解説: SCMは「Supply Chain Management（サプライチェーンマネジメント）」の略です。 部品の調達から、製造、在庫管理、配送、販売に至るまでの一連の流れ（サプライチェーン）全体の情報を、自社だけでなく取引先も含めて共有・管理することで、無駄をなくし、全体の効率化（コスト削減、納期短縮など）を目指す手法です。
+その他の選択肢: ア: 顧客との関係を管理するのは「CRM」です。 イ: 営業活動を効率化するのは「SFA」です。 ウ: 社内の基幹業務を統合管理するのは「ERP」です。</t>
+  </si>
+  <si>
+    <t>ア：顧客情報や購買履歴，クレームなどを一元管理し，きめ細かな顧客対応を行うことによって，良好な顧客関係の構築を目的とする。
+イ：顧客情報や商談スケジュール，進捗状況などの商談状況を一元管理することによって，営業活動の効率向上を目的とする。
+ウ：生産，販売，在庫管理，財務会計，人事管理など基幹業務のあらゆる情報を統合管理することによって，経営効率の向上を目的とする。
+エ：複数の企業や組織にまたがる調達から販売までの業務プロセス全ての情報を統合的に管理することによって，コスト低減や納期短縮などを目的とする。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3143,6 +3311,21 @@
     <t>applied-info-morning-6-67.png</t>
   </si>
   <si>
+    <t>アンゾフの成長マトリクスを説明</t>
+  </si>
+  <si>
+    <t>企業の成長戦略を考えるためのフレームワーク「アンゾフの成長マトリクス」の正しい説明を選ぶものです。
+正解: ウ (事業戦略を，市場浸透，市場拡大，製品開発，多角化という四つのタイプに分類し，事業の方向性を検討する際に用いる手法である。)
+解説: アンゾフの成長マトリクスは、ビジネスを「製品」と「市場」の2つの軸で分け、それぞれが「既存」か「新規」かで4つのタイプに分類して今後の戦略を考える手法です。 ・既存の製品を、既存の市場でもっと売る（市場浸透） ・新しい製品を、既存の市場に売る（製品開発） ・既存の製品を、新しい市場に売る（市場拡大/開拓） ・新しい製品を、新しい市場に売る（多角化）
+その他の選択肢: ア: 強み・弱みなどを分析するのは「SWOT分析」です。 イ: 4つの視点で業績を評価するのは「バランススコアカード」です。 エ: 製品の売上と利益の変遷を4段階で表すのは「プロダクトライフサイクル」です。</t>
+  </si>
+  <si>
+    <t>ア：外部環境と内部環境の観点から，強み，弱み，機会，脅威という四つの要因について情報を整理し，企業を取り巻く環境を分析する手法である。
+イ：外部環境と内部環境の観点から，強み，弱み，機会，脅威という四つの要因について情報を整理し，企業を取り巻く環境を分析する手法である。
+ウ：事業戦略を，市場浸透，市場拡大，製品開発，多角化という四つのタイプに分類し，事業の方向性を検討する際に用いる手法である。
+エ：製品ライフサイクルを，導入期，成長期，成熟期，衰退期という四つの段階に分類し，企業にとって最適な戦略を立案する手法である。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3175,6 +3358,21 @@
     <t>applied-info-morning-6-68.png</t>
   </si>
   <si>
+    <t>コ・クリエーション戦略の特徴</t>
+  </si>
+  <si>
+    <t>「コ・クリエーション（共創）戦略」の定義と特徴を選ぶものです。
+正解: ウ (顧客や企業ネットワークの力を活用し，商品・サービスだけでなく，顧客の経験までを含めて差別化可能な価値を創造する。)
+解説: コ・クリエーション（Co-Creation）は、「共に（Co）創る（Creation）」という意味です。 企業が一方的に製品を提供するのではなく、顧客や他の企業（パートナー）を巻き込んで、一緒に新しい価値や体験（経験）を作り出していく戦略のことです。
+その他の選択肢: ア: 自前主義にこだわるのは「クローズ戦略」であり、コ・クリエーション（オープンな共創）とは逆の考え方です。 イ: 顧客の要望通りに作るだけの「オーダーメイド」や「OEM」とは異なり、もっと深く「共に創る」プロセスを重視します。 エ: 企業の合併・買収は「M&amp;A戦略」です。</t>
+  </si>
+  <si>
+    <t>ア：企業の営業部門と製造部門が協働し，特定の商品・サービスに限定して徹底的に自前主義にこだわることによって強みを発揮する。
+イ：顧客が自らのアイデアを商品の仕様に具体的に落とし込み，企業に製品を製造してもらう。
+ウ：顧客や企業ネットワークの力を活用し，商品・サービスだけでなく，顧客の経験までを含めて差別化可能な価値を創造する。
+エ：自社に不足する経営資源をM&amp;Aによって強化し，従来にない価値をより素早く創造する。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3207,6 +3405,24 @@
     <t>applied-info-morning-6-69.png</t>
   </si>
   <si>
+    <t>企業における研究，開発，事業化</t>
+  </si>
+  <si>
+    <t>技術開発が成功に至るまでの過程に存在する「障壁（乗り越えるべき壁）」のうち、「事業化」から「産業化」へ進む段階にある障壁の名称を選ぶものです。
+正解: ウ (ダーウィンの海)
+解説: 技術開発の各段階には、それぞれ異なる障壁が存在します。
+魔の川: 「研究」から「開発」へ進む間の障壁。
+死の谷: 「開発」から「事業化」へ進む間の障壁。
+ダーウィンの海: 「事業化」した製品が、市場での競争を生き抜いて「産業化」するまでの障壁。自然淘汰（ダーウィンの進化論）のように、市場の荒波に揉まれて生き残る難しさを表しています。
+その他の選択肢: ア: 「キャズム」は、新製品が初期市場からメイン市場へ普及する際に乗り越えるべき深い溝のことです。</t>
+  </si>
+  <si>
+    <t>ア：キャズム
+イ：死の谷
+ウ：ダーウィンの海
+エ：魔の川</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3239,6 +3455,21 @@
     <t>applied-info-morning-6-70.png</t>
   </si>
   <si>
+    <t>生成AIのビジネス活用</t>
+  </si>
+  <si>
+    <t>生成AIの既存のモデル（基盤モデル）を、さらに自社独自のデータで追加学習させて、特定の業務向けに調整（カスタマイズ）する手法の名称を選ぶものです。
+正解: ウ (ファインチューニング)
+解説: 「ファインチューニング」は、すでに大量のデータで学習済みのAIモデルに、特定の分野（例：自社の製品情報や専門用語など）のデータを追加で学習させることで、その分野に特化した賢いモデルに「微調整（fine-tune）」する技術です。
+その他の選択肢: ア: データに正解ラベルを付ける作業は「アノテーション」です。 イ: 似たデータをグループ分けする手法は「クラスタリング」です。 エ: AIへの指示の出し方を工夫する技術は「プロンプトエンジニアリング」です。</t>
+  </si>
+  <si>
+    <t>ア：アノテーション
+イ：クラスタリング
+ウ：ファインチューニング
+エ：プロンプトエンジニアリング</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3271,6 +3502,20 @@
     <t>applied-info-morning-6-71.png</t>
   </si>
   <si>
+    <t>製造業のA社では，NC工作機械を用いる</t>
+  </si>
+  <si>
+    <t>4つの仕事をどの順番で行えば、準備にかかる時間（段取り時間）の合計が最も短くなるかを考えるものです。
+正解: ア (4時間)
+解説: 表を見ると、段取り時間が最も短い「1時間」の組み合わせがいくつかあります（b→a、a→c、b→c）。 これらをうまくつなげて、全体の時間を短くすることを目指します。 例えば、「b→a（1時間）」と「a→c（1時間）」をつなげると、「b→a→c」という流れが2時間でできます。 残りの仕事dを最後に持ってくると、「c→d」は2時間かかります。 この順番（b→a→c→d）で作業すると、合計時間は「1 + 1 + 2 = 4時間」となり、これが最小の時間です。</t>
+  </si>
+  <si>
+    <t>ア：4
+イ：5
+ウ：6
+エ：7</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3303,6 +3548,23 @@
     <t>applied-info-morning-6-72.png</t>
   </si>
   <si>
+    <t>構成表の製品Aを300個出荷しようとするとき，部品bの正味所要量は何個か</t>
+  </si>
+  <si>
+    <t>製品Aを300個出荷するために、部品bが追加でいくつ必要になるか（正味所要量）を計算するものです。
+正解: イ (600)
+解説: まず、製品Aは在庫が100個あるため、300個出荷するには新たに「200個」製造する必要があります。 この「製品Aを200個」作るために必要な部品bの総数を計算します。
+製品Aの材料として直接使う部品b 製品Aを1個作るのに部品bが2個必要なので、200個作るには「400個」必要です。
+部品aの材料として間接的に使う部品b 製品Aを200個作るには部品aが600個必要ですが、部品aの在庫が100個あるため、新たに作る部品aは500個で済みます。 部品aを1個作るのに部品bが1個必要なので、500個作るには「500個」必要です。
+合計すると、部品bは全体で900個（400＋500）必要になります。 ここから、部品bの在庫300個を差し引いた「600個」が、最終的に必要な数量となります。</t>
+  </si>
+  <si>
+    <t>ア：200
+イ：600
+ウ：900
+エ：1,500</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3335,6 +3597,24 @@
     <t>applied-info-morning-6-73.png</t>
   </si>
   <si>
+    <t>企業経営において，経営理念，経営戦略，事業戦略は，経営理念を最上位とするピラミッドを形成</t>
+  </si>
+  <si>
+    <t>企業の経営における「経営理念」「経営戦略」「事業戦略」という3つの階層の関係性を正しく説明したものを選ぶものです。
+正解: ウ (経営理念を達成するために経営戦略を策定し，経営戦略という目標を達成するために事業戦略に分解する。)
+解説: これら3つは、上から順にピラミッド型の関係になっています。
+経営理念（最上位）: 企業の究極の目標や存在意義（抽象的・長期的）
+経営戦略（中間）: 経営理念を実現するための、全社的な計画（目標と打ち手）
+事業戦略（下位）: 経営戦略をさらに具体化した、個々の事業ごとの計画（具体的・短期的）
+つまり、上位の目標を達成するための手段が、下位の戦略になるという関係です。</t>
+  </si>
+  <si>
+    <t>ア：経営理念，経営戦略，事業戦略のピラミッドは上位ほど具体的な内容であるのに対して，下位にいくほど抽象的な内容となっている。
+イ：経営理念，経営戦略，事業戦略のピラミッドは上位ほど短期的な視点であるのに対して，下位にいくほど中長期的な視点となっている。
+ウ：経営理念を達成するために経営戦略を策定し，経営戦略という目標を達成するために事業戦略に分解する。
+エ：経営理念を達成するために事業戦略を策定し，事業戦略という目標を達成するために経営戦略に分解する。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3367,6 +3647,23 @@
     <t>applied-info-morning-6-74.png</t>
   </si>
   <si>
+    <t>A社とB社がそれぞれ2種類の戦略を採る場合の市場シェア</t>
+  </si>
+  <si>
+    <t>ゲーム理論における「ナッシュ均衡（お互いにとって、それ以上良い手がない状態）」を見つける問題です。
+正解: イ (A社が戦略a1，B社が戦略b2を採る組合せ)
+解説: A社とB社は、それぞれ自分のシェア（表の数値）が少しでも大きくなる戦略を選ぼうとします。
+A社の戦略選び: もしB社が「b1」を選んだら、A社は40%取れる「a1」を選びます。 もしB社が「b2」を選んだら、A社は50%取れる「a1」を選びます。 → B社がどちらを選んでも、A社は「a1」を選ぶのがお得です。
+B社の戦略選び: もしA社が「a1」を選んだら、B社は30%取れる「b2」を選びます。 もしA社が「a2」を選んだら、B社は25%取れる「b2」を選びます。 → A社がどちらを選んでも、B社は「b2」を選ぶのがお得です。
+お互いがお得な戦略を選んだ結果、最終的に落ち着くのは「A社はa1、B社はb2」の組み合わせとなります。</t>
+  </si>
+  <si>
+    <t>ア：A社が戦略a1，B社が戦略b1を採る組合せ
+イ：A社が戦略a1，B社が戦略b2を採る組合せ
+ウ：A社が戦略a2，B社が戦略b1を採る組合せ
+エ：A社が戦略a2，B社が戦略b2を採る組合せ</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3399,6 +3696,21 @@
     <t>applied-info-morning-6-75.png</t>
   </si>
   <si>
+    <t>ベイズ統計の説明</t>
+  </si>
+  <si>
+    <t>統計学の一分野である「ベイズ統計」の正しい説明を選ぶものです。
+正解: イ (事前分布・事後分布といった確率に関する考え方に基づいて体系化されたものであり，機械学習，迷惑メールフィルターなどに利用されている統計理論)
+解説: 「ベイズ統計」は、最初に持っていた予測（事前分布）を、新しいデータが得られるたびに更新して、より正確な予測（事後分布）へと近づけていく統計手法です。 データが増えるほど賢くなるという性質から、AIの機械学習や、受信したメールがスパムかどうかを自動で判断する迷惑メールフィルターなどで広く使われています。
+その他の選択肢: ア: 貿易に関する統計は「貿易統計」です。 ウ: 平均値やヒストグラムなどを使う一般的な統計は「記述統計」です。</t>
+  </si>
+  <si>
+    <t>ア：経済統計に関する国際条約に基づいて，貿易実態を正確に把握し，国の経済政策や企業の経済活動の資料とすることを目的とした指標を作成する統計手法
+イ：事前分布・事後分布といった確率に関する考え方に基づいて体系化されたものであり，機械学習，迷惑メールフィルターなどに利用されている統計理論
+ウ：収集されたデータの代表値である平均値・中央値・最頻値を求めたり，度数分布表やヒストグラムを作成したりすることによって，データの特徴を捉える統計理論
+エ：ビッグデータの収集・分析に当たり，分析結果の検証可能性を確保し，複数の分析結果を比較可能とするために，対象をオープンデータに限定する統計手法</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3431,6 +3743,21 @@
     <t>applied-info-morning-6-76.png</t>
   </si>
   <si>
+    <t>A社とB社の比較表</t>
+  </si>
+  <si>
+    <t>A社とB社の財務データ（売上高、変動費、固定費）を比較して、A社がB社より優れている特徴を選ぶものです。
+正解: ア (売上高の増加が大きな利益に結びつきやすい。)
+解説: A社はB社と比べて、売上が増えたときにかかる追加費用（変動費）の割合が小さいです。 これは、売上が増えれば増えるほど、手元に残る利益が大きくなりやすい体質（限界利益率が高い）であることを意味します。
+その他の選択肢: イ: A社の限界利益率はB社より高いです。 ウ: A社の損益分岐点（赤字にならない最低限の売上高）はB社より高いです（不利な点）。 エ: A社は固定費が高いため、売上が減るとすぐに赤字になりやすく、不況への抵抗力は弱いです。</t>
+  </si>
+  <si>
+    <t>ア：売上高の増加が大きな利益に結びつきやすい。
+イ：限界利益率が低い。
+ウ：損益分岐点が低い。
+エ：不況時にも，売上高の減少が大きな損失に結びつかず不況抵抗力は強い。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3463,6 +3790,24 @@
     <t>applied-info-morning-6-77.png</t>
   </si>
   <si>
+    <t>著作権法で保護されるもの</t>
+  </si>
+  <si>
+    <t>著作権法において「保護される対象」と「保護されない対象」を区別するものです。
+正解: イ (コンパイラのプログラム)
+解説: 著作権法では、「プログラム」自体（ソースコードなど）は著作物として保護されます。 しかし、プログラムを作るための「道具」や「決まりごと」である以下の3つは、誰もが自由に使えるようにするため、あえて保護の対象外とされています。
+プログラム言語（選択肢ウ）
+規約（プロトコルなど）（選択肢エ）
+解法（アルゴリズムなど）（選択肢ア）
+したがって、選択肢の中で唯一保護されるのは、具体的なプログラムである「イ」になります。</t>
+  </si>
+  <si>
+    <t>ア：アルゴリズム
+イ：コンパイラのプログラム
+ウ：プログラム言語
+エ：プロトコル</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3495,6 +3840,21 @@
     <t>applied-info-morning-6-78.png</t>
   </si>
   <si>
+    <t>大規模なシステム開発を受注したA社</t>
+  </si>
+  <si>
+    <t>「労働者派遣法」において、派遣先（受け入れる企業側）が守るべきルールとして適切なものを選ぶ問題です。
+正解: ア (システム開発が長期間となることが予想されるので，開発要員の派遣期間を3年とする契約を結ぶ。)
+解説: 労働者派遣法では、同じ派遣労働者が同じ組織（部署など）で働ける期間は、原則として「最大3年」までと決められています。 選択肢アは、この「3年以内」というルールを守って契約しているので適切です。
+その他の選択肢（やってはいけないこと）: イ・ウ: 派遣先が、派遣労働者を事前に面接したり、性別や年齢を指定したりして「選ぶ」ことは禁止されています。 エ: 派遣労働者から苦情があった場合、派遣先も誠実に対応しなければなりません。派遣元に丸投げしてはいけません。</t>
+  </si>
+  <si>
+    <t>ア：システム開発が長期間となることが予想されるので，開発要員の派遣期間を3年とする契約を結ぶ。
+イ：派遣候補者の履歴書及び業務経歴書の提出をB社に求め，書類選考を行い，面接対象者を絞り込む。
+ウ：派遣された要員が大きな作業負担を負うことが見込まれるので，B社に20代男性の派遣を依頼する。
+エ：派遣労働者がA社の指揮命令に対して申し立てた苦情に自社で対応せず，その処理をB社に任せる。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="ＭＳ ゴシック"/>
@@ -3525,6 +3885,21 @@
   </si>
   <si>
     <t>applied-info-morning-6-79.png</t>
+  </si>
+  <si>
+    <t>デジタル社会形成基本法において掲げられている10項目の基本理念</t>
+  </si>
+  <si>
+    <t>「デジタル社会形成基本法」で掲げられている10の基本理念に含まれるものを選ぶ問題です。
+正解: ウ (全ての国民が情報通信技術の恵みを享受できる社会の実現を目指し，情報通信技術を用いた情報の活用により信頼性のある情報の自由かつ安全な流通の確保を図ること)
+解説: デジタル社会形成基本法は、デジタル社会を作るための基本的な方針を定めた法律です。 その理念の一つに「全ての国民がITの恩恵を受けられる社会の実現」と、「情報の自由で安全な流通の確保」が含まれています。
+その他の選択肢: ア: ネット上の権利侵害対策は「プロバイダ責任制限法」などに関連します。 イ: 迷惑メール対策は「特定電子メール法」などに関連します。 エ: 通信販売のルールは「特定商取引法」に関連します。</t>
+  </si>
+  <si>
+    <t>ア：インターネット上での権利侵害があった場合のサービスプロバイダなどが負う責任範囲を制限し，同時に被害者が発信者情報の開示を請求できる権利を定めること
+イ：広告宣伝を目的とする電子メールの適正化のための措置を定め，電子メールの利用環境の整備を図ることにより，高度情報通信社会の健全な発展に寄与すること
+ウ：全ての国民が情報通信技術の恵みを享受できる社会の実現を目指し，情報通信技術を用いた情報の活用により信頼性のある情報の自由かつ安全な流通の確保を図ること
+エ：通信販売などの取引を公正にし，購入者等が受ける損害の防止を図り，購入者等の利益を保護することにより，国民経済の健全な発展に寄与すること</t>
   </si>
   <si>
     <r>
@@ -3566,7 +3941,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;修了認定に係る試験&quot;\ 0\ &quot;問目&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -3599,13 +3974,24 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF111111"/>
+      <name val="&quot;Open Sans&quot;"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3692,8 +4078,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -6333,17 +6719,23 @@
         <v>372</v>
       </c>
     </row>
-    <row r="59" ht="87.75" customHeight="1">
+    <row r="59" ht="268.5" customHeight="1">
       <c r="A59" s="3">
         <v>57.0</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="C59" s="13"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F59" s="2"/>
+      <c r="D59" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="G59" s="3">
         <v>9.0</v>
       </c>
@@ -6351,30 +6743,38 @@
         <v>5.0</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="L59" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="L59" s="11">
+        <v>2.0</v>
+      </c>
       <c r="M59" s="14" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N59" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O59" s="11" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="60" ht="87.75" customHeight="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" ht="135.0" customHeight="1">
       <c r="A60" s="3">
         <v>58.0</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="11" t="s">
+        <v>379</v>
+      </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F60" s="2"/>
+      <c r="D60" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="G60" s="3">
         <v>9.0</v>
       </c>
@@ -6382,30 +6782,38 @@
         <v>5.0</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="L60" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="L60" s="11">
+        <v>2.0</v>
+      </c>
       <c r="M60" s="14" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="N60" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="61" ht="87.75" customHeight="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" ht="237.0" customHeight="1">
       <c r="A61" s="3">
         <v>59.0</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="21" t="s">
+        <v>385</v>
+      </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F61" s="2"/>
+      <c r="D61" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="G61" s="3">
         <v>9.0</v>
       </c>
@@ -6413,30 +6821,38 @@
         <v>5.0</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="L61" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="L61" s="11">
+        <v>2.0</v>
+      </c>
       <c r="M61" s="14" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="N61" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O61" s="11" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="62" ht="87.75" customHeight="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" ht="273.0" customHeight="1">
       <c r="A62" s="3">
         <v>60.0</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="11" t="s">
+        <v>391</v>
+      </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F62" s="2"/>
+      <c r="D62" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G62" s="3">
         <v>9.0</v>
       </c>
@@ -6444,30 +6860,38 @@
         <v>5.0</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="L62" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="L62" s="11">
+        <v>2.0</v>
+      </c>
       <c r="M62" s="22" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="N62" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="63" ht="87.75" customHeight="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" ht="350.25" customHeight="1">
       <c r="A63" s="3">
         <v>61.0</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="11" t="s">
+        <v>397</v>
+      </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F63" s="2"/>
+      <c r="D63" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="G63" s="3">
         <v>9.0</v>
       </c>
@@ -6475,30 +6899,38 @@
         <v>5.0</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="L63" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="L63" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M63" s="22" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="N63" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="64" ht="87.75" customHeight="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" ht="294.0" customHeight="1">
       <c r="A64" s="3">
         <v>62.0</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="11" t="s">
+        <v>403</v>
+      </c>
       <c r="C64" s="13"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F64" s="2"/>
+      <c r="D64" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="G64" s="3">
         <v>9.0</v>
       </c>
@@ -6506,30 +6938,38 @@
         <v>5.0</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="L64" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="L64" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M64" s="22" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="N64" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O64" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="65" ht="87.75" customHeight="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65" ht="302.25" customHeight="1">
       <c r="A65" s="3">
         <v>63.0</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="11" t="s">
+        <v>409</v>
+      </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F65" s="2"/>
+      <c r="D65" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="G65" s="3">
         <v>9.0</v>
       </c>
@@ -6537,30 +6977,38 @@
         <v>5.0</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="L65" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="L65" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M65" s="22" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="N65" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="66" ht="87.75" customHeight="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" ht="308.25" customHeight="1">
       <c r="A66" s="3">
         <v>64.0</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="C66" s="13"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F66" s="2"/>
+      <c r="D66" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="G66" s="3">
         <v>9.0</v>
       </c>
@@ -6568,30 +7016,38 @@
         <v>5.0</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="L66" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="L66" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M66" s="22" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="N66" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="67" ht="87.75" customHeight="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="67" ht="287.25" customHeight="1">
       <c r="A67" s="3">
         <v>65.0</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F67" s="2"/>
+      <c r="D67" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G67" s="3">
         <v>9.0</v>
       </c>
@@ -6599,30 +7055,38 @@
         <v>5.0</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="L67" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="L67" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M67" s="22" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="N67" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O67" s="11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="68" ht="87.75" customHeight="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68" ht="237.75" customHeight="1">
       <c r="A68" s="3">
         <v>66.0</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="11" t="s">
+        <v>427</v>
+      </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F68" s="2"/>
+      <c r="D68" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="G68" s="3">
         <v>9.0</v>
       </c>
@@ -6630,30 +7094,38 @@
         <v>5.0</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="L68" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="L68" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M68" s="22" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="N68" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O68" s="11" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="69" ht="87.75" customHeight="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="69" ht="266.25" customHeight="1">
       <c r="A69" s="3">
         <v>67.0</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="11" t="s">
+        <v>433</v>
+      </c>
       <c r="C69" s="13"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F69" s="2"/>
+      <c r="D69" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="G69" s="3">
         <v>9.0</v>
       </c>
@@ -6661,30 +7133,38 @@
         <v>5.0</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="L69" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="L69" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M69" s="22" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="N69" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O69" s="11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="70" ht="87.75" customHeight="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="70" ht="303.75" customHeight="1">
       <c r="A70" s="3">
         <v>68.0</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="11" t="s">
+        <v>439</v>
+      </c>
       <c r="C70" s="13"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F70" s="2"/>
+      <c r="D70" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G70" s="3">
         <v>9.0</v>
       </c>
@@ -6692,30 +7172,38 @@
         <v>5.0</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="L70" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="L70" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M70" s="22" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="N70" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O70" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="71" ht="87.75" customHeight="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" ht="242.25" customHeight="1">
       <c r="A71" s="3">
         <v>69.0</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="11" t="s">
+        <v>445</v>
+      </c>
       <c r="C71" s="13"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F71" s="2"/>
+      <c r="D71" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G71" s="3">
         <v>9.0</v>
       </c>
@@ -6723,30 +7211,38 @@
         <v>5.0</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="L71" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="L71" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M71" s="22" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="N71" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O71" s="11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="72" ht="87.75" customHeight="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" ht="292.5" customHeight="1">
       <c r="A72" s="3">
         <v>70.0</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F72" s="2"/>
+      <c r="D72" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G72" s="3">
         <v>9.0</v>
       </c>
@@ -6754,30 +7250,38 @@
         <v>5.0</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="L72" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="L72" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M72" s="22" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="N72" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="73" ht="87.75" customHeight="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" ht="251.25" customHeight="1">
       <c r="A73" s="3">
         <v>71.0</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="C73" s="13"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F73" s="2"/>
+      <c r="D73" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G73" s="3">
         <v>9.0</v>
       </c>
@@ -6785,30 +7289,38 @@
         <v>5.0</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="L73" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="L73" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M73" s="22" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="N73" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O73" s="11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="74" ht="87.75" customHeight="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" ht="196.5" customHeight="1">
       <c r="A74" s="3">
         <v>72.0</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="11" t="s">
+        <v>463</v>
+      </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F74" s="2"/>
+      <c r="D74" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="G74" s="3">
         <v>9.0</v>
       </c>
@@ -6816,30 +7328,38 @@
         <v>5.0</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="L74" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="L74" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M74" s="22" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="N74" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O74" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="75" ht="87.75" customHeight="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="75" ht="237.0" customHeight="1">
       <c r="A75" s="3">
         <v>73.0</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="11" t="s">
+        <v>469</v>
+      </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F75" s="2"/>
+      <c r="D75" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="G75" s="3">
         <v>9.0</v>
       </c>
@@ -6847,30 +7367,38 @@
         <v>5.0</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="L75" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="L75" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M75" s="22" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="N75" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="76" ht="87.75" customHeight="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="76" ht="287.25" customHeight="1">
       <c r="A76" s="3">
         <v>74.0</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F76" s="2"/>
+      <c r="B76" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G76" s="3">
         <v>9.0</v>
       </c>
@@ -6878,30 +7406,38 @@
         <v>5.0</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="L76" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="L76" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M76" s="22" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="N76" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O76" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="77" ht="87.75" customHeight="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" ht="295.5" customHeight="1">
       <c r="A77" s="3">
         <v>75.0</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="11" t="s">
+        <v>481</v>
+      </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F77" s="2"/>
+      <c r="D77" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="G77" s="3">
         <v>9.0</v>
       </c>
@@ -6909,30 +7445,38 @@
         <v>5.0</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="L77" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="L77" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M77" s="22" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="N77" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O77" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="78" ht="87.75" customHeight="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="78" ht="282.75" customHeight="1">
       <c r="A78" s="3">
         <v>76.0</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="11" t="s">
+        <v>487</v>
+      </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F78" s="2"/>
+      <c r="D78" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="G78" s="3">
         <v>9.0</v>
       </c>
@@ -6940,30 +7484,38 @@
         <v>5.0</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="L78" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="L78" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M78" s="22" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="N78" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O78" s="11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="79" ht="87.75" customHeight="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="79" ht="216.75" customHeight="1">
       <c r="A79" s="3">
         <v>77.0</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="11" t="s">
+        <v>493</v>
+      </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F79" s="2"/>
+      <c r="D79" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="G79" s="3">
         <v>9.0</v>
       </c>
@@ -6971,30 +7523,38 @@
         <v>5.0</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="L79" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="L79" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M79" s="22" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="N79" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O79" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="80" ht="87.75" customHeight="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="80" ht="258.0" customHeight="1">
       <c r="A80" s="3">
         <v>78.0</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="11" t="s">
+        <v>499</v>
+      </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F80" s="2"/>
+      <c r="D80" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="G80" s="3">
         <v>9.0</v>
       </c>
@@ -7002,30 +7562,38 @@
         <v>5.0</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="L80" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="L80" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M80" s="22" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="N80" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O80" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="81" ht="87.75" customHeight="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="81" ht="237.0" customHeight="1">
       <c r="A81" s="3">
         <v>79.0</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="11" t="s">
+        <v>505</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F81" s="2"/>
+      <c r="D81" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="G81" s="3">
         <v>9.0</v>
       </c>
@@ -7033,30 +7601,38 @@
         <v>5.0</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="L81" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="L81" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M81" s="22" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="N81" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O81" s="11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="82" ht="87.75" customHeight="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="82" ht="268.5" customHeight="1">
       <c r="A82" s="3">
         <v>80.0</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="F82" s="2"/>
+      <c r="D82" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G82" s="3">
         <v>9.0</v>
       </c>
@@ -7064,17 +7640,19 @@
         <v>5.0</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="L82" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="L82" s="11">
+        <v>3.0</v>
+      </c>
       <c r="M82" s="22" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
       <c r="N82" s="11" t="s">
         <v>38</v>
       </c>
       <c r="O82" s="11" t="s">
-        <v>445</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83">
